--- a/Project-KTXForecasting/Result/20240702/Forecasting_2DFUTR5_경전선.xlsx
+++ b/Project-KTXForecasting/Result/20240702/Forecasting_2DFUTR5_경전선.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\20240702\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD13086C-BA5E-4CFF-BAA0-0AE3C721B922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -96,15 +102,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,8 +118,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,22 +170,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,14 +476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,70 +508,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>48630132247.20541</v>
+        <v>48630132247.205406</v>
       </c>
       <c r="C2">
-        <v>220522.4075852733</v>
+        <v>220522.40758527329</v>
       </c>
       <c r="D2">
-        <v>0.02462090141535389</v>
+        <v>2.4620901415353891E-2</v>
       </c>
       <c r="E2">
-        <v>82756.55729166667</v>
+        <v>82756.557291666672</v>
       </c>
       <c r="F2">
-        <v>0.07262251570078858</v>
+        <v>7.2622515700788579E-2</v>
       </c>
       <c r="G2">
         <v>23272.34375</v>
       </c>
       <c r="H2">
-        <v>0.03582325051419219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3.582325051419219E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>46257337432.96484</v>
+        <v>46257337432.964844</v>
       </c>
       <c r="C3">
-        <v>215075.1901846534</v>
+        <v>215075.19018465339</v>
       </c>
       <c r="D3">
-        <v>0.02567553055884656</v>
+        <v>2.5675530558846561E-2</v>
       </c>
       <c r="E3">
-        <v>96545.47916666667</v>
+        <v>96545.479166666672</v>
       </c>
       <c r="F3">
-        <v>0.09550584918001882</v>
+        <v>9.5505849180018823E-2</v>
       </c>
       <c r="G3">
         <v>45273.65625</v>
       </c>
       <c r="H3">
-        <v>0.06553112948134837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>6.5531129481348371E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>47817281716.04264</v>
+        <v>47817281716.042641</v>
       </c>
       <c r="C4">
-        <v>218671.6298838115</v>
+        <v>218671.62988381149</v>
       </c>
       <c r="D4">
-        <v>0.02887658673285863</v>
+        <v>2.8876586732858631E-2</v>
       </c>
       <c r="E4">
         <v>108875.359375</v>
@@ -558,10 +583,10 @@
         <v>42426.46875</v>
       </c>
       <c r="H4">
-        <v>0.06344072155848945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>6.3440721558489455E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,10 +594,10 @@
         <v>52834411215.986</v>
       </c>
       <c r="C5">
-        <v>229857.3714632315</v>
+        <v>229857.37146323151</v>
       </c>
       <c r="D5">
-        <v>0.03220419816390466</v>
+        <v>3.2204198163904657E-2</v>
       </c>
       <c r="E5">
         <v>114170.0364583333</v>
@@ -584,79 +609,79 @@
         <v>64813.09375</v>
       </c>
       <c r="H5">
-        <v>0.09640053417762623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>9.6400534177626229E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>50507231979.11239</v>
+        <v>50507231979.112389</v>
       </c>
       <c r="C6">
-        <v>224738.1409087304</v>
+        <v>224738.14090873039</v>
       </c>
       <c r="D6">
-        <v>0.03744948609034456</v>
+        <v>3.7449486090344562E-2</v>
       </c>
       <c r="E6">
         <v>128573.4609375</v>
       </c>
       <c r="F6">
-        <v>0.1427394384626549</v>
+        <v>0.14273943846265491</v>
       </c>
       <c r="G6">
         <v>64864.34375</v>
       </c>
       <c r="H6">
-        <v>0.09475823971891167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>9.4758239718911674E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>56051220682.94116</v>
+        <v>56051220682.941162</v>
       </c>
       <c r="C7">
-        <v>236751.3900338098</v>
+        <v>236751.39003380979</v>
       </c>
       <c r="D7">
-        <v>0.04188252725060174</v>
+        <v>4.1882527250601737E-2</v>
       </c>
       <c r="E7">
         <v>136871.9765625</v>
       </c>
       <c r="F7">
-        <v>0.1525624411513007</v>
+        <v>0.15256244115130069</v>
       </c>
       <c r="G7">
         <v>63363.78125</v>
       </c>
       <c r="H7">
-        <v>0.09370160238328913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>9.3701602383289131E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>55347280822.61752</v>
+        <v>55347280822.617523</v>
       </c>
       <c r="C8">
-        <v>235260.0281021353</v>
+        <v>235260.02810213529</v>
       </c>
       <c r="D8">
-        <v>0.03817918914916549</v>
+        <v>3.8179189149165488E-2</v>
       </c>
       <c r="E8">
-        <v>135580.5677083333</v>
+        <v>135580.56770833331</v>
       </c>
       <c r="F8">
-        <v>0.1501426869963469</v>
+        <v>0.15014268699634689</v>
       </c>
       <c r="G8">
         <v>71272.9375</v>
@@ -665,33 +690,33 @@
         <v>0.1018638316168881</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>56361800326.57487</v>
+        <v>56361800326.574867</v>
       </c>
       <c r="C9">
-        <v>237406.4032973308</v>
+        <v>237406.40329733081</v>
       </c>
       <c r="D9">
-        <v>0.05100480873683563</v>
+        <v>5.1004808736835633E-2</v>
       </c>
       <c r="E9">
-        <v>162961.0104166667</v>
+        <v>162961.01041666669</v>
       </c>
       <c r="F9">
-        <v>0.1947364776836142</v>
+        <v>0.19473647768361421</v>
       </c>
       <c r="G9">
         <v>119933.03125</v>
       </c>
       <c r="H9">
-        <v>0.1795970143561048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.17959701435610481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -705,45 +730,45 @@
         <v>0.1098967670031455</v>
       </c>
       <c r="E10">
-        <v>208082.2877604167</v>
+        <v>208082.28776041669</v>
       </c>
       <c r="F10">
-        <v>0.2594336073146015</v>
+        <v>0.25943360731460152</v>
       </c>
       <c r="G10">
         <v>101905.3125</v>
       </c>
       <c r="H10">
-        <v>0.1488504410548405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.14885044105484049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>118329284004.273</v>
+        <v>118329284004.27299</v>
       </c>
       <c r="C11">
         <v>343990.238239798</v>
       </c>
       <c r="D11">
-        <v>0.1275784480589766</v>
+        <v>0.12757844805897661</v>
       </c>
       <c r="E11">
         <v>273912.7304603855</v>
       </c>
       <c r="F11">
-        <v>0.3412464509973022</v>
+        <v>0.34124645099730222</v>
       </c>
       <c r="G11">
-        <v>216829.8797283825</v>
+        <v>216829.87972838251</v>
       </c>
       <c r="H11">
-        <v>0.3302046113682965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.33020461136829649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -751,51 +776,51 @@
         <v>112067911245.0589</v>
       </c>
       <c r="C12">
-        <v>334765.4570666736</v>
+        <v>334765.45706667361</v>
       </c>
       <c r="D12">
         <v>0.1268296072958327</v>
       </c>
       <c r="E12">
-        <v>271566.5085520134</v>
+        <v>271566.50855201337</v>
       </c>
       <c r="F12">
-        <v>0.3409647175966923</v>
+        <v>0.34096471759669228</v>
       </c>
       <c r="G12">
         <v>223822.9561651127</v>
       </c>
       <c r="H12">
-        <v>0.3345480647399802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.33454806473998022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>114098705185.0653</v>
+        <v>114098705185.06531</v>
       </c>
       <c r="C13">
-        <v>337784.9984606559</v>
+        <v>337784.99846065592</v>
       </c>
       <c r="D13">
         <v>0.1318636396765149</v>
       </c>
       <c r="E13">
-        <v>275585.3734679117</v>
+        <v>275585.37346791168</v>
       </c>
       <c r="F13">
-        <v>0.3470396509372407</v>
+        <v>0.34703965093724071</v>
       </c>
       <c r="G13">
-        <v>226621.1717425784</v>
+        <v>226621.17174257839</v>
       </c>
       <c r="H13">
-        <v>0.3447091304801825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.34470913048018248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -803,64 +828,65 @@
         <v>114852611628.3062</v>
       </c>
       <c r="C14">
-        <v>338899.1171843121</v>
+        <v>338899.11718431208</v>
       </c>
       <c r="D14">
-        <v>0.1334374641624078</v>
+        <v>0.13343746416240779</v>
       </c>
       <c r="E14">
-        <v>276594.8645833333</v>
+        <v>276594.86458333331</v>
       </c>
       <c r="F14">
-        <v>0.3485804395465824</v>
+        <v>0.34858043954658241</v>
       </c>
       <c r="G14">
         <v>226919.25</v>
       </c>
       <c r="H14">
-        <v>0.3451630059656886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.34516300596568861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>426979859582.5586</v>
+        <v>426979859582.55859</v>
       </c>
       <c r="C15">
-        <v>653436.9591495101</v>
+        <v>653436.95914951013</v>
       </c>
       <c r="D15">
-        <v>0.7512936293396212</v>
+        <v>0.75129362933962118</v>
       </c>
       <c r="E15">
-        <v>556909.0558268229</v>
+        <v>556909.05582682288</v>
       </c>
       <c r="F15">
-        <v>0.7490788983516171</v>
+        <v>0.74907889835161712</v>
       </c>
       <c r="G15">
         <v>586624.046875</v>
       </c>
       <c r="H15">
-        <v>0.7870429501702974</v>
+        <v>0.78704295017029735</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -913,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -951,13 +977,13 @@
         <v>693360.8125</v>
       </c>
       <c r="M2">
-        <v>484619.8375782663</v>
+        <v>484619.83757826628</v>
       </c>
       <c r="N2">
-        <v>502502.6361421357</v>
+        <v>502502.63614213571</v>
       </c>
       <c r="O2">
-        <v>500195.3240577955</v>
+        <v>500195.32405779551</v>
       </c>
       <c r="P2">
         <v>500206.03125</v>
@@ -966,7 +992,7 @@
         <v>818041.3125</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -1004,13 +1030,13 @@
         <v>711101.4375</v>
       </c>
       <c r="M3">
-        <v>474485.7616965534</v>
+        <v>474485.76169655338</v>
       </c>
       <c r="N3">
-        <v>523583.3565000001</v>
+        <v>523583.35650000011</v>
       </c>
       <c r="O3">
-        <v>525985.4958572285</v>
+        <v>525985.49585722852</v>
       </c>
       <c r="P3">
         <v>525370.875</v>
@@ -1019,7 +1045,7 @@
         <v>340913.96875</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -1057,13 +1083,13 @@
         <v>639699.8125</v>
       </c>
       <c r="M4">
-        <v>443352.6358144153</v>
+        <v>443352.63581441529</v>
       </c>
       <c r="N4">
-        <v>450876.1125627705</v>
+        <v>450876.11256277049</v>
       </c>
       <c r="O4">
-        <v>460413.8999973573</v>
+        <v>460413.89999735728</v>
       </c>
       <c r="P4">
         <v>454283.875</v>
@@ -1072,7 +1098,7 @@
         <v>-137411.46875</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -1113,10 +1139,10 @@
         <v>473870.1954064946</v>
       </c>
       <c r="N5">
-        <v>421270.9751070041</v>
+        <v>421270.97510700411</v>
       </c>
       <c r="O5">
-        <v>408418.5835899569</v>
+        <v>408418.58358995692</v>
       </c>
       <c r="P5">
         <v>406705.875</v>
@@ -1125,7 +1151,7 @@
         <v>10374.966796875</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -1166,10 +1192,10 @@
         <v>435829.6047288198</v>
       </c>
       <c r="N6">
-        <v>434004.2910646123</v>
+        <v>434004.29106461228</v>
       </c>
       <c r="O6">
-        <v>430355.8282574216</v>
+        <v>430355.82825742161</v>
       </c>
       <c r="P6">
         <v>430057.75</v>
@@ -1178,7 +1204,7 @@
         <v>207230.03125</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -1216,13 +1242,13 @@
         <v>571183.9375</v>
       </c>
       <c r="M7">
-        <v>490403.2455924833</v>
+        <v>490403.24559248332</v>
       </c>
       <c r="N7">
-        <v>513811.7120000001</v>
+        <v>513811.71200000012</v>
       </c>
       <c r="O7">
-        <v>523430.2140426981</v>
+        <v>523430.21404269809</v>
       </c>
       <c r="P7">
         <v>523300.96875</v>
@@ -1231,7 +1257,7 @@
         <v>226665</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -1269,13 +1295,13 @@
         <v>624147.5</v>
       </c>
       <c r="M8">
-        <v>534265.4827156698</v>
+        <v>534265.48271566979</v>
       </c>
       <c r="N8">
-        <v>534541.0688134922</v>
+        <v>534541.06881349219</v>
       </c>
       <c r="O8">
-        <v>539725.1035150284</v>
+        <v>539725.10351502837</v>
       </c>
       <c r="P8">
         <v>551939.3125</v>
@@ -1284,7 +1310,7 @@
         <v>134711.90625</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -1322,13 +1348,13 @@
         <v>577039.875</v>
       </c>
       <c r="M9">
-        <v>482086.9557240944</v>
+        <v>482086.95572409441</v>
       </c>
       <c r="N9">
-        <v>507739.5357481962</v>
+        <v>507739.53574819618</v>
       </c>
       <c r="O9">
-        <v>507068.4433620722</v>
+        <v>507068.44336207223</v>
       </c>
       <c r="P9">
         <v>506478.625</v>
@@ -1337,7 +1363,7 @@
         <v>584376.375</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -1375,13 +1401,13 @@
         <v>529673</v>
       </c>
       <c r="M10">
-        <v>458238.9069518155</v>
+        <v>458238.90695181547</v>
       </c>
       <c r="N10">
-        <v>437567.6105714286</v>
+        <v>437567.61057142861</v>
       </c>
       <c r="O10">
-        <v>432748.7032116181</v>
+        <v>432748.70321161812</v>
       </c>
       <c r="P10">
         <v>431928.5625</v>
@@ -1390,7 +1416,7 @@
         <v>54596.26953125</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -1431,10 +1457,10 @@
         <v>435829.6047288198</v>
       </c>
       <c r="N11">
-        <v>434004.2910646123</v>
+        <v>434004.29106461228</v>
       </c>
       <c r="O11">
-        <v>430355.8282574216</v>
+        <v>430355.82825742161</v>
       </c>
       <c r="P11">
         <v>430057.75</v>
@@ -1443,7 +1469,7 @@
         <v>1235602</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -1481,13 +1507,13 @@
         <v>254305.859375</v>
       </c>
       <c r="M12">
-        <v>444663.0965861261</v>
+        <v>444663.09658612608</v>
       </c>
       <c r="N12">
-        <v>446569.6972301587</v>
+        <v>446569.69723015872</v>
       </c>
       <c r="O12">
-        <v>404366.3910248426</v>
+        <v>404366.39102484263</v>
       </c>
       <c r="P12">
         <v>391440.4375</v>
@@ -1496,7 +1522,7 @@
         <v>636677.875</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -1534,13 +1560,13 @@
         <v>312742.1875</v>
       </c>
       <c r="M13">
-        <v>458238.9069518155</v>
+        <v>458238.90695181547</v>
       </c>
       <c r="N13">
-        <v>437567.6105714286</v>
+        <v>437567.61057142861</v>
       </c>
       <c r="O13">
-        <v>432748.7032116181</v>
+        <v>432748.70321161812</v>
       </c>
       <c r="P13">
         <v>431928.5625</v>
@@ -1549,7 +1575,7 @@
         <v>-450865.28125</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -1587,13 +1613,13 @@
         <v>253854.4375</v>
       </c>
       <c r="M14">
-        <v>408242.086760533</v>
+        <v>408242.08676053298</v>
       </c>
       <c r="N14">
-        <v>389911.5821725497</v>
+        <v>389911.58217254968</v>
       </c>
       <c r="O14">
-        <v>389295.1213316664</v>
+        <v>389295.12133166642</v>
       </c>
       <c r="P14">
         <v>390216.875</v>
@@ -1602,7 +1628,7 @@
         <v>125951.953125</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -1640,13 +1666,13 @@
         <v>328403.6875</v>
       </c>
       <c r="M15">
-        <v>534265.4827156698</v>
+        <v>534265.48271566979</v>
       </c>
       <c r="N15">
-        <v>555700.1615396827</v>
+        <v>555700.16153968265</v>
       </c>
       <c r="O15">
-        <v>538179.1543448361</v>
+        <v>538179.15434483613</v>
       </c>
       <c r="P15">
         <v>551820.1875</v>
@@ -1655,7 +1681,7 @@
         <v>47817.21875</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -1693,13 +1719,13 @@
         <v>297096.1875</v>
       </c>
       <c r="M16">
-        <v>461136.6733695357</v>
+        <v>461136.67336953571</v>
       </c>
       <c r="N16">
-        <v>508919.1967619046</v>
+        <v>508919.19676190458</v>
       </c>
       <c r="O16">
-        <v>512427.2157162123</v>
+        <v>512427.21571621229</v>
       </c>
       <c r="P16">
         <v>514065.4375</v>
@@ -1708,7 +1734,7 @@
         <v>-534142.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -1746,13 +1772,13 @@
         <v>346753.1875</v>
       </c>
       <c r="M17">
-        <v>482823.809862848</v>
+        <v>482823.80986284802</v>
       </c>
       <c r="N17">
-        <v>518166.6828374126</v>
+        <v>518166.68283741258</v>
       </c>
       <c r="O17">
-        <v>532127.5584688272</v>
+        <v>532127.55846882716</v>
       </c>
       <c r="P17">
         <v>536309.8125</v>
@@ -1761,7 +1787,7 @@
         <v>33534.32421875</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -1799,13 +1825,13 @@
         <v>378661.96875</v>
       </c>
       <c r="M18">
-        <v>457868.904975687</v>
+        <v>457868.90497568698</v>
       </c>
       <c r="N18">
-        <v>488963.6522812466</v>
+        <v>488963.65228124661</v>
       </c>
       <c r="O18">
-        <v>489948.1113222188</v>
+        <v>489948.11132221879</v>
       </c>
       <c r="P18">
         <v>489894.8125</v>
@@ -1814,7 +1840,7 @@
         <v>227300.171875</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -1852,13 +1878,13 @@
         <v>363154.8125</v>
       </c>
       <c r="M19">
-        <v>504442.8176052421</v>
+        <v>504442.81760524207</v>
       </c>
       <c r="N19">
-        <v>531509.3658333332</v>
+        <v>531509.36583333323</v>
       </c>
       <c r="O19">
-        <v>537685.8704233209</v>
+        <v>537685.87042332091</v>
       </c>
       <c r="P19">
         <v>538237.625</v>
@@ -1867,7 +1893,7 @@
         <v>-193859.828125</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -1905,13 +1931,13 @@
         <v>414262.1875</v>
       </c>
       <c r="M20">
-        <v>474485.7616965534</v>
+        <v>474485.76169655338</v>
       </c>
       <c r="N20">
-        <v>546131.8030396826</v>
+        <v>546131.80303968256</v>
       </c>
       <c r="O20">
-        <v>560751.4717867366</v>
+        <v>560751.47178673663</v>
       </c>
       <c r="P20">
         <v>562508.625</v>
@@ -1920,7 +1946,7 @@
         <v>156011.90625</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -1958,13 +1984,13 @@
         <v>329930.875</v>
       </c>
       <c r="M21">
-        <v>484619.8375782663</v>
+        <v>484619.83757826628</v>
       </c>
       <c r="N21">
-        <v>502502.6361421357</v>
+        <v>502502.63614213571</v>
       </c>
       <c r="O21">
-        <v>500195.3240577955</v>
+        <v>500195.32405779551</v>
       </c>
       <c r="P21">
         <v>500206.03125</v>
@@ -1973,7 +1999,7 @@
         <v>1209013.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -2011,13 +2037,13 @@
         <v>360273.4375</v>
       </c>
       <c r="M22">
-        <v>471483.9814730076</v>
+        <v>471483.98147300759</v>
       </c>
       <c r="N22">
-        <v>463560.9990126262</v>
+        <v>463560.99901262618</v>
       </c>
       <c r="O22">
-        <v>458466.6882309798</v>
+        <v>458466.68823097978</v>
       </c>
       <c r="P22">
         <v>458362.09375</v>
@@ -2026,7 +2052,7 @@
         <v>-147448.484375</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -2064,13 +2090,13 @@
         <v>387024.125</v>
       </c>
       <c r="M23">
-        <v>534265.4827156698</v>
+        <v>534265.48271566979</v>
       </c>
       <c r="N23">
         <v>566360.1571111111</v>
       </c>
       <c r="O23">
-        <v>567127.4697153691</v>
+        <v>567127.46971536905</v>
       </c>
       <c r="P23">
         <v>566717.375</v>
@@ -2079,7 +2105,7 @@
         <v>67139.5703125</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -2117,13 +2143,13 @@
         <v>299059.6875</v>
       </c>
       <c r="M24">
-        <v>481534.3505741027</v>
+        <v>481534.35057410272</v>
       </c>
       <c r="N24">
-        <v>530909.5446666667</v>
+        <v>530909.54466666665</v>
       </c>
       <c r="O24">
-        <v>539566.8983142186</v>
+        <v>539566.89831421862</v>
       </c>
       <c r="P24">
         <v>539874.5625</v>
@@ -2132,7 +2158,7 @@
         <v>15944.5849609375</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -2170,13 +2196,13 @@
         <v>278612.71875</v>
       </c>
       <c r="M25">
-        <v>506587.7888559366</v>
+        <v>506587.78885593661</v>
       </c>
       <c r="N25">
         <v>514627.7485000001</v>
       </c>
       <c r="O25">
-        <v>523824.0824949865</v>
+        <v>523824.08249498648</v>
       </c>
       <c r="P25">
         <v>524325.0625</v>
@@ -2185,7 +2211,7 @@
         <v>-36714.8671875</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -2223,13 +2249,13 @@
         <v>296002.6875</v>
       </c>
       <c r="M26">
-        <v>482086.9557240944</v>
+        <v>482086.95572409441</v>
       </c>
       <c r="N26">
-        <v>507739.5357481962</v>
+        <v>507739.53574819618</v>
       </c>
       <c r="O26">
-        <v>507068.4433620722</v>
+        <v>507068.44336207223</v>
       </c>
       <c r="P26">
         <v>506478.625</v>
@@ -2238,7 +2264,7 @@
         <v>1387760.75</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -2276,13 +2302,13 @@
         <v>407432.15625</v>
       </c>
       <c r="M27">
-        <v>506587.7888559366</v>
+        <v>506587.78885593661</v>
       </c>
       <c r="N27">
-        <v>466775.3456666667</v>
+        <v>466775.34566666669</v>
       </c>
       <c r="O27">
-        <v>443492.987141165</v>
+        <v>443492.98714116501</v>
       </c>
       <c r="P27">
         <v>437499.75</v>
@@ -2291,7 +2317,7 @@
         <v>2279894.75</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -2329,13 +2355,13 @@
         <v>343572.9375</v>
       </c>
       <c r="M28">
-        <v>443352.6358144153</v>
+        <v>443352.63581441529</v>
       </c>
       <c r="N28">
-        <v>450876.1125627705</v>
+        <v>450876.11256277049</v>
       </c>
       <c r="O28">
-        <v>460413.8999973573</v>
+        <v>460413.89999735728</v>
       </c>
       <c r="P28">
         <v>454283.875</v>
@@ -2344,7 +2370,7 @@
         <v>998920.875</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -2382,13 +2408,13 @@
         <v>439380.65625</v>
       </c>
       <c r="M29">
-        <v>482823.809862848</v>
+        <v>482823.80986284802</v>
       </c>
       <c r="N29">
-        <v>518166.6828374126</v>
+        <v>518166.68283741258</v>
       </c>
       <c r="O29">
-        <v>532127.5584688272</v>
+        <v>532127.55846882716</v>
       </c>
       <c r="P29">
         <v>536309.8125</v>
@@ -2397,7 +2423,7 @@
         <v>2150070.25</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -2435,13 +2461,13 @@
         <v>388156.875</v>
       </c>
       <c r="M30">
-        <v>458238.9069518155</v>
+        <v>458238.90695181547</v>
       </c>
       <c r="N30">
-        <v>437567.6105714286</v>
+        <v>437567.61057142861</v>
       </c>
       <c r="O30">
-        <v>432748.7032116181</v>
+        <v>432748.70321161812</v>
       </c>
       <c r="P30">
         <v>431928.5625</v>
@@ -2450,7 +2476,7 @@
         <v>2322319</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -2488,13 +2514,13 @@
         <v>339481.6875</v>
       </c>
       <c r="M31">
-        <v>482086.9557240944</v>
+        <v>482086.95572409441</v>
       </c>
       <c r="N31">
-        <v>507739.5357481962</v>
+        <v>507739.53574819618</v>
       </c>
       <c r="O31">
-        <v>507068.4433620722</v>
+        <v>507068.44336207223</v>
       </c>
       <c r="P31">
         <v>506478.625</v>
@@ -2503,7 +2529,7 @@
         <v>4398287</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -2541,13 +2567,13 @@
         <v>411694</v>
       </c>
       <c r="M32">
-        <v>534265.4827156698</v>
+        <v>534265.48271566979</v>
       </c>
       <c r="N32">
         <v>566360.1571111111</v>
       </c>
       <c r="O32">
-        <v>567127.4697153691</v>
+        <v>567127.46971536905</v>
       </c>
       <c r="P32">
         <v>566717.375</v>
@@ -2556,7 +2582,7 @@
         <v>4194003</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -2594,13 +2620,13 @@
         <v>493980.34375</v>
       </c>
       <c r="M33">
-        <v>484619.8375782663</v>
+        <v>484619.83757826628</v>
       </c>
       <c r="N33">
-        <v>502502.6361421357</v>
+        <v>502502.63614213571</v>
       </c>
       <c r="O33">
-        <v>500195.3240577955</v>
+        <v>500195.32405779551</v>
       </c>
       <c r="P33">
         <v>500206.03125</v>
@@ -2609,7 +2635,7 @@
         <v>6472980</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -2650,10 +2676,10 @@
         <v>435829.6047288198</v>
       </c>
       <c r="N34">
-        <v>434004.2910646123</v>
+        <v>434004.29106461228</v>
       </c>
       <c r="O34">
-        <v>430355.8282574216</v>
+        <v>430355.82825742161</v>
       </c>
       <c r="P34">
         <v>430057.75</v>
@@ -2663,19 +2689,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,59 +2725,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>9741637815.572205</v>
+        <v>9741637815.5722046</v>
       </c>
       <c r="C2">
         <v>98699.73564084254</v>
       </c>
       <c r="D2">
-        <v>0.02604296632590347</v>
+        <v>2.6042966325903472E-2</v>
       </c>
       <c r="E2">
-        <v>47520.95442708334</v>
+        <v>47520.954427083343</v>
       </c>
       <c r="F2">
-        <v>0.09752166114290045</v>
+        <v>9.7521661142900451E-2</v>
       </c>
       <c r="G2">
         <v>20965.1875</v>
       </c>
       <c r="H2">
-        <v>0.05620828142536533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5.6208281425365332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>9266207651.418131</v>
+        <v>9266207651.4181309</v>
       </c>
       <c r="C3">
-        <v>96261.14299871019</v>
+        <v>96261.142998710187</v>
       </c>
       <c r="D3">
-        <v>0.02852228730474827</v>
+        <v>2.8522287304748269E-2</v>
       </c>
       <c r="E3">
-        <v>51924.45833333334</v>
+        <v>51924.458333333343</v>
       </c>
       <c r="F3">
-        <v>0.115372865315792</v>
+        <v>0.11537286531579199</v>
       </c>
       <c r="G3">
         <v>21957.609375</v>
       </c>
       <c r="H3">
-        <v>0.06057703717241669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>6.0577037172416692E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2761,22 +2788,22 @@
         <v>100441.8407997368</v>
       </c>
       <c r="D4">
-        <v>0.02691753377424149</v>
+        <v>2.6917533774241491E-2</v>
       </c>
       <c r="E4">
         <v>52136.8984375</v>
       </c>
       <c r="F4">
-        <v>0.1092141923647477</v>
+        <v>0.10921419236474771</v>
       </c>
       <c r="G4">
         <v>24143.953125</v>
       </c>
       <c r="H4">
-        <v>0.07293398668098139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>7.2933986680981389E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2784,13 +2811,13 @@
         <v>10094935162.9209</v>
       </c>
       <c r="C5">
-        <v>100473.5545450687</v>
+        <v>100473.55454506871</v>
       </c>
       <c r="D5">
-        <v>0.02809097977496315</v>
+        <v>2.8090979774963151E-2</v>
       </c>
       <c r="E5">
-        <v>52904.40104166666</v>
+        <v>52904.401041666657</v>
       </c>
       <c r="F5">
         <v>0.1110009843837844</v>
@@ -2799,24 +2826,24 @@
         <v>29336.46875</v>
       </c>
       <c r="H5">
-        <v>0.09265582117274969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>9.2655821172749689E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10093463823.0568</v>
+        <v>10093463823.056801</v>
       </c>
       <c r="C6">
         <v>100466.2322527167</v>
       </c>
       <c r="D6">
-        <v>0.0280928138213464</v>
+        <v>2.8092813821346398E-2</v>
       </c>
       <c r="E6">
-        <v>52902.92708333334</v>
+        <v>52902.927083333343</v>
       </c>
       <c r="F6">
         <v>0.1110135873257389</v>
@@ -2825,21 +2852,21 @@
         <v>29425.421875</v>
       </c>
       <c r="H6">
-        <v>0.09293675515807746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>9.2936755158077464E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10637545631.36564</v>
+        <v>10637545631.365641</v>
       </c>
       <c r="C7">
-        <v>103138.4779379919</v>
+        <v>103138.47793799191</v>
       </c>
       <c r="D7">
-        <v>0.03254178888923831</v>
+        <v>3.254178888923831E-2</v>
       </c>
       <c r="E7">
         <v>59230.9453125</v>
@@ -2851,10 +2878,10 @@
         <v>32385.125</v>
       </c>
       <c r="H7">
-        <v>0.09889348530289332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>9.8893485302893325E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2865,22 +2892,22 @@
         <v>105193.6609685013</v>
       </c>
       <c r="D8">
-        <v>0.03447830204581107</v>
+        <v>3.4478302045811073E-2</v>
       </c>
       <c r="E8">
         <v>61156.94921875</v>
       </c>
       <c r="F8">
-        <v>0.1356106056737343</v>
+        <v>0.13561060567373431</v>
       </c>
       <c r="G8">
         <v>47475.453125</v>
       </c>
       <c r="H8">
-        <v>0.1382738847517262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.13827388475172619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2891,22 +2918,22 @@
         <v>107329.0246067308</v>
       </c>
       <c r="D9">
-        <v>0.03648461231657878</v>
+        <v>3.6484612316578777E-2</v>
       </c>
       <c r="E9">
         <v>68772.609375</v>
       </c>
       <c r="F9">
-        <v>0.1554741908717037</v>
+        <v>0.15547419087170369</v>
       </c>
       <c r="G9">
         <v>45908.265625</v>
       </c>
       <c r="H9">
-        <v>0.1359189873390594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.13591898733905941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2914,103 +2941,103 @@
         <v>14904868884.98114</v>
       </c>
       <c r="C10">
-        <v>122085.4982583154</v>
+        <v>122085.49825831541</v>
       </c>
       <c r="D10">
-        <v>0.06667935624893941</v>
+        <v>6.6679356248939406E-2</v>
       </c>
       <c r="E10">
-        <v>85912.72005208333</v>
+        <v>85912.720052083328</v>
       </c>
       <c r="F10">
-        <v>0.2054549520518554</v>
+        <v>0.20545495205185541</v>
       </c>
       <c r="G10">
         <v>54304.4375</v>
       </c>
       <c r="H10">
-        <v>0.1627184750580566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.16271847505805659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>31561113688.08141</v>
+        <v>31561113688.081409</v>
       </c>
       <c r="C11">
-        <v>177654.4783789066</v>
+        <v>177654.47837890661</v>
       </c>
       <c r="D11">
-        <v>0.1376035740735295</v>
+        <v>0.13760357407352949</v>
       </c>
       <c r="E11">
-        <v>144291.4525667747</v>
+        <v>144291.45256677471</v>
       </c>
       <c r="F11">
-        <v>0.3510828552672616</v>
+        <v>0.35108285526726157</v>
       </c>
       <c r="G11">
         <v>113091.436191392</v>
       </c>
       <c r="H11">
-        <v>0.3051416621048244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.30514166210482441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>30356766800.84566</v>
+        <v>30356766800.845661</v>
       </c>
       <c r="C12">
-        <v>174231.9339295918</v>
+        <v>174231.93392959179</v>
       </c>
       <c r="D12">
-        <v>0.1358281566532167</v>
+        <v>0.13582815665321671</v>
       </c>
       <c r="E12">
-        <v>143621.6911642748</v>
+        <v>143621.69116427479</v>
       </c>
       <c r="F12">
-        <v>0.350899955646376</v>
+        <v>0.35089995564637599</v>
       </c>
       <c r="G12">
-        <v>116274.2655191281</v>
+        <v>116274.26551912809</v>
       </c>
       <c r="H12">
-        <v>0.3086341770007163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.30863417700071633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>31792249952.18289</v>
+        <v>31792249952.182892</v>
       </c>
       <c r="C13">
         <v>178303.8136220953</v>
       </c>
       <c r="D13">
-        <v>0.1386132059823673</v>
+        <v>0.13861320598236729</v>
       </c>
       <c r="E13">
         <v>145100.0974205675</v>
       </c>
       <c r="F13">
-        <v>0.3533389048167919</v>
+        <v>0.35333890481679192</v>
       </c>
       <c r="G13">
         <v>117806.9565296519</v>
       </c>
       <c r="H13">
-        <v>0.3148017252729943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.31480172527299433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -3018,16 +3045,16 @@
         <v>32967220490.88015</v>
       </c>
       <c r="C14">
-        <v>181568.7762003152</v>
+        <v>181568.77620031519</v>
       </c>
       <c r="D14">
         <v>0.1446173896750442</v>
       </c>
       <c r="E14">
-        <v>147522.2825520833</v>
+        <v>147522.28255208331</v>
       </c>
       <c r="F14">
-        <v>0.3595328457586519</v>
+        <v>0.35953284575865191</v>
       </c>
       <c r="G14">
         <v>116058.3828125</v>
@@ -3036,7 +3063,7 @@
         <v>0.3132016207422611</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3044,38 +3071,39 @@
         <v>154733909868.3808</v>
       </c>
       <c r="C15">
-        <v>393362.3137368154</v>
+        <v>393362.31373681541</v>
       </c>
       <c r="D15">
-        <v>0.9999926448229974</v>
+        <v>0.99999264482299743</v>
       </c>
       <c r="E15">
-        <v>382024.9048820634</v>
+        <v>382024.90488206339</v>
       </c>
       <c r="F15">
-        <v>0.9999963224041677</v>
+        <v>0.99999632240416769</v>
       </c>
       <c r="G15">
-        <v>356207.655013144</v>
+        <v>356207.65501314402</v>
       </c>
       <c r="H15">
-        <v>0.9999962134577736</v>
+        <v>0.99999621345777356</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3128,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -3166,13 +3194,13 @@
         <v>395237.90625</v>
       </c>
       <c r="M2">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N2">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O2">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P2">
         <v>265650.03125</v>
@@ -3181,7 +3209,7 @@
         <v>1.830281734466553</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -3219,22 +3247,22 @@
         <v>361565.125</v>
       </c>
       <c r="M3">
-        <v>196664.8135528083</v>
+        <v>196664.81355280831</v>
       </c>
       <c r="N3">
-        <v>215125.6222230956</v>
+        <v>215125.62222309559</v>
       </c>
       <c r="O3">
-        <v>192546.6077032165</v>
+        <v>192546.60770321649</v>
       </c>
       <c r="P3">
         <v>186149.734375</v>
       </c>
       <c r="Q3">
-        <v>2.625623941421509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.6256239414215088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -3272,13 +3300,13 @@
         <v>323452.84375</v>
       </c>
       <c r="M4">
-        <v>243478.3597842151</v>
+        <v>243478.35978421511</v>
       </c>
       <c r="N4">
-        <v>241864.2774313134</v>
+        <v>241864.27743131341</v>
       </c>
       <c r="O4">
-        <v>249833.4792374797</v>
+        <v>249833.47923747971</v>
       </c>
       <c r="P4">
         <v>241963.640625</v>
@@ -3287,7 +3315,7 @@
         <v>1.486679792404175</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -3325,13 +3353,13 @@
         <v>323072.15625</v>
       </c>
       <c r="M5">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N5">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O5">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P5">
         <v>265650.03125</v>
@@ -3340,7 +3368,7 @@
         <v>1.860063314437866</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -3378,22 +3406,22 @@
         <v>264672.3125</v>
       </c>
       <c r="M6">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N6">
         <v>223818.210810105</v>
       </c>
       <c r="O6">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P6">
         <v>223807.90625</v>
       </c>
       <c r="Q6">
-        <v>1.01456880569458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.0145688056945801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -3431,10 +3459,10 @@
         <v>312483.3125</v>
       </c>
       <c r="M7">
-        <v>247619.2591666667</v>
+        <v>247619.25916666671</v>
       </c>
       <c r="N7">
-        <v>223268.8620538969</v>
+        <v>223268.86205389691</v>
       </c>
       <c r="O7">
         <v>250545.8092777032</v>
@@ -3446,7 +3474,7 @@
         <v>1.27082896232605</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -3484,13 +3512,13 @@
         <v>343632.28125</v>
       </c>
       <c r="M8">
-        <v>243478.3597842151</v>
+        <v>243478.35978421511</v>
       </c>
       <c r="N8">
-        <v>241864.2774313134</v>
+        <v>241864.27743131341</v>
       </c>
       <c r="O8">
-        <v>249833.4792374797</v>
+        <v>249833.47923747971</v>
       </c>
       <c r="P8">
         <v>241963.640625</v>
@@ -3499,7 +3527,7 @@
         <v>1.139099717140198</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -3537,22 +3565,22 @@
         <v>294410.8125</v>
       </c>
       <c r="M9">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N9">
         <v>223818.210810105</v>
       </c>
       <c r="O9">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P9">
         <v>223807.90625</v>
       </c>
       <c r="Q9">
-        <v>0.8299103975296021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.82991039752960205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -3590,22 +3618,22 @@
         <v>317736.5</v>
       </c>
       <c r="M10">
-        <v>292353.2815457875</v>
+        <v>292353.28154578753</v>
       </c>
       <c r="N10">
-        <v>294123.1915304305</v>
+        <v>294123.19153043051</v>
       </c>
       <c r="O10">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P10">
         <v>294455.59375</v>
       </c>
       <c r="Q10">
-        <v>1.222635507583618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.2226355075836179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -3643,22 +3671,22 @@
         <v>225033.609375</v>
       </c>
       <c r="M11">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N11">
         <v>223818.210810105</v>
       </c>
       <c r="O11">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P11">
         <v>223807.90625</v>
       </c>
       <c r="Q11">
-        <v>0.4494853019714355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.44948530197143549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -3696,13 +3724,13 @@
         <v>207894.9375</v>
       </c>
       <c r="M12">
-        <v>205453.8460714286</v>
+        <v>205453.84607142859</v>
       </c>
       <c r="N12">
         <v>221341.4965673899</v>
       </c>
       <c r="O12">
-        <v>192546.6077032165</v>
+        <v>192546.60770321649</v>
       </c>
       <c r="P12">
         <v>187843.078125</v>
@@ -3711,7 +3739,7 @@
         <v>1.26038134098053</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -3752,7 +3780,7 @@
         <v>222012.9491154401</v>
       </c>
       <c r="N13">
-        <v>220489.3912127776</v>
+        <v>220489.39121277761</v>
       </c>
       <c r="O13">
         <v>250545.8092777032</v>
@@ -3764,7 +3792,7 @@
         <v>2.151856422424316</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -3802,22 +3830,22 @@
         <v>124352.34375</v>
       </c>
       <c r="M14">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N14">
         <v>223818.210810105</v>
       </c>
       <c r="O14">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P14">
         <v>223807.90625</v>
       </c>
       <c r="Q14">
-        <v>1.497841835021973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.4978418350219731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -3855,22 +3883,22 @@
         <v>114528.9921875</v>
       </c>
       <c r="M15">
-        <v>179011.2313095238</v>
+        <v>179011.23130952381</v>
       </c>
       <c r="N15">
-        <v>172552.4904334924</v>
+        <v>172552.49043349241</v>
       </c>
       <c r="O15">
-        <v>237145.0816073501</v>
+        <v>237145.08160735009</v>
       </c>
       <c r="P15">
         <v>172125.53125</v>
       </c>
       <c r="Q15">
-        <v>0.5564308166503906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.55643081665039063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -3908,22 +3936,22 @@
         <v>176761.21875</v>
       </c>
       <c r="M16">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N16">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O16">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P16">
         <v>265650.03125</v>
       </c>
       <c r="Q16">
-        <v>1.669612288475037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.6696122884750371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -3961,13 +3989,13 @@
         <v>146102.4375</v>
       </c>
       <c r="M17">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N17">
         <v>223818.210810105</v>
       </c>
       <c r="O17">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P17">
         <v>223807.90625</v>
@@ -3976,7 +4004,7 @@
         <v>1.996146559715271</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -4014,13 +4042,13 @@
         <v>189987.984375</v>
       </c>
       <c r="M18">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N18">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O18">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P18">
         <v>265650.03125</v>
@@ -4029,7 +4057,7 @@
         <v>1.529350280761719</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -4067,22 +4095,22 @@
         <v>150752.96875</v>
       </c>
       <c r="M19">
-        <v>243478.3597842151</v>
+        <v>243478.35978421511</v>
       </c>
       <c r="N19">
-        <v>241864.2774313134</v>
+        <v>241864.27743131341</v>
       </c>
       <c r="O19">
-        <v>249833.4792374797</v>
+        <v>249833.47923747971</v>
       </c>
       <c r="P19">
         <v>241963.640625</v>
       </c>
       <c r="Q19">
-        <v>1.761868238449097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.7618682384490969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -4120,22 +4148,22 @@
         <v>152697.515625</v>
       </c>
       <c r="M20">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N20">
         <v>223818.210810105</v>
       </c>
       <c r="O20">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P20">
         <v>223807.90625</v>
       </c>
       <c r="Q20">
-        <v>0.5458574295043945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.54585742950439453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -4173,22 +4201,22 @@
         <v>195675</v>
       </c>
       <c r="M21">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N21">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O21">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P21">
         <v>265650.03125</v>
       </c>
       <c r="Q21">
-        <v>2.940791845321655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2.9407918453216548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -4226,22 +4254,22 @@
         <v>167107.015625</v>
       </c>
       <c r="M22">
-        <v>243478.3597842151</v>
+        <v>243478.35978421511</v>
       </c>
       <c r="N22">
-        <v>241864.2774313134</v>
+        <v>241864.27743131341</v>
       </c>
       <c r="O22">
-        <v>249833.4792374797</v>
+        <v>249833.47923747971</v>
       </c>
       <c r="P22">
         <v>241963.640625</v>
       </c>
       <c r="Q22">
-        <v>1.641404151916504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.6414041519165039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -4279,22 +4307,22 @@
         <v>170927.171875</v>
       </c>
       <c r="M23">
-        <v>243478.3597842151</v>
+        <v>243478.35978421511</v>
       </c>
       <c r="N23">
-        <v>241864.2774313134</v>
+        <v>241864.27743131341</v>
       </c>
       <c r="O23">
-        <v>249833.4792374797</v>
+        <v>249833.47923747971</v>
       </c>
       <c r="P23">
         <v>241963.640625</v>
       </c>
       <c r="Q23">
-        <v>0.3833122253417969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.38331222534179688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -4332,13 +4360,13 @@
         <v>180552.78125</v>
       </c>
       <c r="M24">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N24">
         <v>223818.210810105</v>
       </c>
       <c r="O24">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P24">
         <v>223807.90625</v>
@@ -4347,7 +4375,7 @@
         <v>2.440515518188477</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -4385,10 +4413,10 @@
         <v>179473.640625</v>
       </c>
       <c r="M25">
-        <v>264534.4663993785</v>
+        <v>264534.46639937849</v>
       </c>
       <c r="N25">
-        <v>264113.5497269701</v>
+        <v>264113.54972697009</v>
       </c>
       <c r="O25">
         <v>250545.8092777032</v>
@@ -4400,7 +4428,7 @@
         <v>1.855769038200378</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -4438,13 +4466,13 @@
         <v>215415.78125</v>
       </c>
       <c r="M26">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N26">
         <v>223818.210810105</v>
       </c>
       <c r="O26">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P26">
         <v>223807.90625</v>
@@ -4453,7 +4481,7 @@
         <v>1.012062788009644</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -4491,22 +4519,22 @@
         <v>230837.234375</v>
       </c>
       <c r="M27">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N27">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O27">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P27">
         <v>265650.03125</v>
       </c>
       <c r="Q27">
-        <v>5.39445161819458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>5.3944516181945801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -4544,13 +4572,13 @@
         <v>251708.078125</v>
       </c>
       <c r="M28">
-        <v>179011.2313095238</v>
+        <v>179011.23130952381</v>
       </c>
       <c r="N28">
-        <v>172552.4904334924</v>
+        <v>172552.49043349241</v>
       </c>
       <c r="O28">
-        <v>237145.0816073501</v>
+        <v>237145.08160735009</v>
       </c>
       <c r="P28">
         <v>172125.53125</v>
@@ -4559,7 +4587,7 @@
         <v>5.9512939453125</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -4597,13 +4625,13 @@
         <v>239606.234375</v>
       </c>
       <c r="M29">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N29">
         <v>223818.210810105</v>
       </c>
       <c r="O29">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P29">
         <v>223807.90625</v>
@@ -4612,7 +4640,7 @@
         <v>7.955775260925293</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -4653,7 +4681,7 @@
         <v>222012.9491154401</v>
       </c>
       <c r="N30">
-        <v>220489.3912127776</v>
+        <v>220489.39121277761</v>
       </c>
       <c r="O30">
         <v>250545.8092777032</v>
@@ -4665,7 +4693,7 @@
         <v>10.57774066925049</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -4703,22 +4731,22 @@
         <v>220489.703125</v>
       </c>
       <c r="M31">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N31">
         <v>223818.210810105</v>
       </c>
       <c r="O31">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P31">
         <v>223807.90625</v>
       </c>
       <c r="Q31">
-        <v>11.77068710327148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>11.770687103271481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -4759,10 +4787,10 @@
         <v>282665.5711071429</v>
       </c>
       <c r="N32">
-        <v>278833.1603784073</v>
+        <v>278833.16037840728</v>
       </c>
       <c r="O32">
-        <v>237145.0816073501</v>
+        <v>237145.08160735009</v>
       </c>
       <c r="P32">
         <v>279698.5625</v>
@@ -4771,7 +4799,7 @@
         <v>14.98306179046631</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -4809,22 +4837,22 @@
         <v>299522.3125</v>
       </c>
       <c r="M33">
-        <v>266028.349292957</v>
+        <v>266028.34929295699</v>
       </c>
       <c r="N33">
-        <v>265661.9775740852</v>
+        <v>265661.97757408518</v>
       </c>
       <c r="O33">
-        <v>263707.7297896523</v>
+        <v>263707.72978965228</v>
       </c>
       <c r="P33">
         <v>265650.03125</v>
       </c>
       <c r="Q33">
-        <v>31.12874221801758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>31.128742218017582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -4862,35 +4890,36 @@
         <v>307376.40625</v>
       </c>
       <c r="M34">
-        <v>223233.6671974093</v>
+        <v>223233.66719740929</v>
       </c>
       <c r="N34">
         <v>223818.210810105</v>
       </c>
       <c r="O34">
-        <v>222046.616382478</v>
+        <v>222046.61638247801</v>
       </c>
       <c r="P34">
         <v>223807.90625</v>
       </c>
       <c r="Q34">
-        <v>82.98126983642578</v>
+        <v>82.981269836425781</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4913,21 +4942,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>14257291326.24701</v>
+        <v>14257291326.247009</v>
       </c>
       <c r="C2">
         <v>119403.8999624678</v>
       </c>
       <c r="D2">
-        <v>0.02978186060121943</v>
+        <v>2.9781860601219429E-2</v>
       </c>
       <c r="E2">
-        <v>53533.98307291666</v>
+        <v>53533.983072916657</v>
       </c>
       <c r="F2">
         <v>0.1061664762840846</v>
@@ -4936,10 +4965,10 @@
         <v>20560.03125</v>
       </c>
       <c r="H2">
-        <v>0.05803735786157981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5.8037357861579812E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4947,13 +4976,13 @@
         <v>13986373508.47603</v>
       </c>
       <c r="C3">
-        <v>118263.9992071807</v>
+        <v>118263.99920718071</v>
       </c>
       <c r="D3">
-        <v>0.03081422992416933</v>
+        <v>3.081422992416933E-2</v>
       </c>
       <c r="E3">
-        <v>56635.13541666666</v>
+        <v>56635.135416666657</v>
       </c>
       <c r="F3">
         <v>0.1163634899113805</v>
@@ -4962,24 +4991,24 @@
         <v>25079.15625</v>
       </c>
       <c r="H3">
-        <v>0.07075126224612274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>7.0751262246122743E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>16667025821.99512</v>
+        <v>16667025821.995119</v>
       </c>
       <c r="C4">
-        <v>129100.8358686927</v>
+        <v>129100.83586869269</v>
       </c>
       <c r="D4">
-        <v>0.03784867901182235</v>
+        <v>3.7848679011822352E-2</v>
       </c>
       <c r="E4">
-        <v>58953.29166666666</v>
+        <v>58953.291666666657</v>
       </c>
       <c r="F4">
         <v>0.1222171835710149</v>
@@ -4988,21 +5017,21 @@
         <v>23210.703125</v>
       </c>
       <c r="H4">
-        <v>0.07435256386158945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>7.4352563861589449E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>16191723411.60579</v>
+        <v>16191723411.605789</v>
       </c>
       <c r="C5">
-        <v>127246.7029498438</v>
+        <v>127246.70294984381</v>
       </c>
       <c r="D5">
-        <v>0.03339429276986251</v>
+        <v>3.3394292769862513E-2</v>
       </c>
       <c r="E5">
         <v>58017.203125</v>
@@ -5014,24 +5043,24 @@
         <v>26365.03125</v>
       </c>
       <c r="H5">
-        <v>0.08132240224954185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>8.1322402249541847E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>16192802451.90698</v>
+        <v>16192802451.906981</v>
       </c>
       <c r="C6">
         <v>127250.9428330768</v>
       </c>
       <c r="D6">
-        <v>0.03339411393178215</v>
+        <v>3.3394113931782148E-2</v>
       </c>
       <c r="E6">
-        <v>58031.90885416666</v>
+        <v>58031.908854166657</v>
       </c>
       <c r="F6">
         <v>0.1165999016050128</v>
@@ -5040,10 +5069,10 @@
         <v>26374.296875</v>
       </c>
       <c r="H6">
-        <v>0.08144642532403165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8.1446425324031652E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5054,10 +5083,10 @@
         <v>116655.7280094212</v>
       </c>
       <c r="D7">
-        <v>0.03276688187129719</v>
+        <v>3.2766881871297192E-2</v>
       </c>
       <c r="E7">
-        <v>58254.34505208334</v>
+        <v>58254.345052083343</v>
       </c>
       <c r="F7">
         <v>0.1225565179367704</v>
@@ -5066,21 +5095,21 @@
         <v>24239.71875</v>
       </c>
       <c r="H7">
-        <v>0.07990673233970172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>7.9906732339701719E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>17965548969.52262</v>
+        <v>17965548969.522621</v>
       </c>
       <c r="C8">
         <v>134035.6257474953</v>
       </c>
       <c r="D8">
-        <v>0.04133509020382066</v>
+        <v>4.133509020382066E-2</v>
       </c>
       <c r="E8">
         <v>67488.34375</v>
@@ -5092,10 +5121,10 @@
         <v>36233.921875</v>
       </c>
       <c r="H8">
-        <v>0.1101121868351106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.11011218683511061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -5106,39 +5135,39 @@
         <v>127019.5705844084</v>
       </c>
       <c r="D9">
-        <v>0.0396399726945661</v>
+        <v>3.9639972694566102E-2</v>
       </c>
       <c r="E9">
-        <v>68697.24739583333</v>
+        <v>68697.247395833328</v>
       </c>
       <c r="F9">
-        <v>0.1499659553350826</v>
+        <v>0.14996595533508261</v>
       </c>
       <c r="G9">
         <v>39300.453125</v>
       </c>
       <c r="H9">
-        <v>0.1172902657027459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.11729026570274589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>21876359370.14728</v>
+        <v>21876359370.147282</v>
       </c>
       <c r="C10">
         <v>147906.5900159532</v>
       </c>
       <c r="D10">
-        <v>0.1012965074935683</v>
+        <v>0.10129650749356831</v>
       </c>
       <c r="E10">
         <v>110161.1028645833</v>
       </c>
       <c r="F10">
-        <v>0.2783440457153226</v>
+        <v>0.27834404571532262</v>
       </c>
       <c r="G10">
         <v>80922.6015625</v>
@@ -5147,41 +5176,41 @@
         <v>0.2444875682348798</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>29225901856.13674</v>
+        <v>29225901856.136742</v>
       </c>
       <c r="C11">
-        <v>170955.8476804369</v>
+        <v>170955.84768043691</v>
       </c>
       <c r="D11">
         <v>0.1116901310690557</v>
       </c>
       <c r="E11">
-        <v>126623.4813257758</v>
+        <v>126623.48132577581</v>
       </c>
       <c r="F11">
-        <v>0.315438154459811</v>
+        <v>0.31543815445981099</v>
       </c>
       <c r="G11">
-        <v>89602.19305495163</v>
+        <v>89602.193054951626</v>
       </c>
       <c r="H11">
-        <v>0.2807568088809922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.28075680888099219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>29869502460.62517</v>
+        <v>29869502460.625172</v>
       </c>
       <c r="C12">
-        <v>172827.9562473189</v>
+        <v>172827.95624731891</v>
       </c>
       <c r="D12">
         <v>0.1130563675262416</v>
@@ -5190,7 +5219,7 @@
         <v>127433.7498154411</v>
       </c>
       <c r="F12">
-        <v>0.3170976413704724</v>
+        <v>0.31709764137047242</v>
       </c>
       <c r="G12">
         <v>91660.50048316388</v>
@@ -5199,7 +5228,7 @@
         <v>0.2819671818490973</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -5207,7 +5236,7 @@
         <v>30289826855.35545</v>
       </c>
       <c r="C13">
-        <v>174039.7278076343</v>
+        <v>174039.72780763431</v>
       </c>
       <c r="D13">
         <v>0.1154181925970402</v>
@@ -5216,24 +5245,24 @@
         <v>128779.1263020833</v>
       </c>
       <c r="F13">
-        <v>0.3207549050287484</v>
+        <v>0.32075490502874843</v>
       </c>
       <c r="G13">
         <v>93658.3828125</v>
       </c>
       <c r="H13">
-        <v>0.2926346257409405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.29263462574094051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>30378625626.8037</v>
+        <v>30378625626.803699</v>
       </c>
       <c r="C14">
-        <v>174294.6517446926</v>
+        <v>174294.65174469259</v>
       </c>
       <c r="D14">
         <v>0.1161443491391933</v>
@@ -5245,30 +5274,30 @@
         <v>0.3220774436784985</v>
       </c>
       <c r="G14">
-        <v>93620.52974917072</v>
+        <v>93620.529749170717</v>
       </c>
       <c r="H14">
-        <v>0.2926043126743852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.29260431267438519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>255113569410.4734</v>
+        <v>255113569410.47339</v>
       </c>
       <c r="C15">
-        <v>505087.6848731053</v>
+        <v>505087.68487310532</v>
       </c>
       <c r="D15">
         <v>2.414888371297498</v>
       </c>
       <c r="E15">
-        <v>447127.3255208333</v>
+        <v>447127.32552083331</v>
       </c>
       <c r="F15">
-        <v>1.32596013991492</v>
+        <v>1.3259601399149199</v>
       </c>
       <c r="G15">
         <v>406413.11328125</v>
@@ -5278,19 +5307,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5343,7 +5373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -5381,22 +5411,22 @@
         <v>260958.734375</v>
       </c>
       <c r="M2">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N2">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O2">
         <v>214523.15625</v>
       </c>
       <c r="P2">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q2">
         <v>394213.09375</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -5434,10 +5464,10 @@
         <v>361149.46875</v>
       </c>
       <c r="M3">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N3">
-        <v>247692.2515082695</v>
+        <v>247692.25150826949</v>
       </c>
       <c r="O3">
         <v>245551.265625</v>
@@ -5449,7 +5479,7 @@
         <v>266168.03125</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -5487,22 +5517,22 @@
         <v>275902.8125</v>
       </c>
       <c r="M4">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N4">
-        <v>234779.5311215729</v>
+        <v>234779.53112157289</v>
       </c>
       <c r="O4">
         <v>237476.171875</v>
       </c>
       <c r="P4">
-        <v>237469.1976780728</v>
+        <v>237469.19767807279</v>
       </c>
       <c r="Q4">
         <v>-270002.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -5540,22 +5570,22 @@
         <v>276384.96875</v>
       </c>
       <c r="M5">
-        <v>223471.9748003703</v>
+        <v>223471.97480037031</v>
       </c>
       <c r="N5">
-        <v>223259.5449853126</v>
+        <v>223259.54498531259</v>
       </c>
       <c r="O5">
         <v>224373.4375</v>
       </c>
       <c r="P5">
-        <v>224373.5672948709</v>
+        <v>224373.56729487091</v>
       </c>
       <c r="Q5">
         <v>-689488.3125</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -5593,10 +5623,10 @@
         <v>306178.125</v>
       </c>
       <c r="M6">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N6">
-        <v>247692.2515082695</v>
+        <v>247692.25150826949</v>
       </c>
       <c r="O6">
         <v>245551.265625</v>
@@ -5608,7 +5638,7 @@
         <v>-416272.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -5646,10 +5676,10 @@
         <v>236411.5</v>
       </c>
       <c r="M7">
-        <v>218078.0571294716</v>
+        <v>218078.05712947159</v>
       </c>
       <c r="N7">
-        <v>218280.3446190477</v>
+        <v>218280.34461904771</v>
       </c>
       <c r="O7">
         <v>211498.53125</v>
@@ -5661,7 +5691,7 @@
         <v>-86025.0703125</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -5699,10 +5729,10 @@
         <v>285244.21875</v>
       </c>
       <c r="M8">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N8">
-        <v>264873.7475254027</v>
+        <v>264873.74752540269</v>
       </c>
       <c r="O8">
         <v>260086.609375</v>
@@ -5714,7 +5744,7 @@
         <v>-51622.453125</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -5752,10 +5782,10 @@
         <v>245458.578125</v>
       </c>
       <c r="M9">
-        <v>221477.4084778201</v>
+        <v>221477.40847782011</v>
       </c>
       <c r="N9">
-        <v>220348.8742818095</v>
+        <v>220348.87428180949</v>
       </c>
       <c r="O9">
         <v>220269.015625</v>
@@ -5767,7 +5797,7 @@
         <v>609338.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -5805,22 +5835,22 @@
         <v>212529.125</v>
       </c>
       <c r="M10">
-        <v>218078.0571294716</v>
+        <v>218078.05712947159</v>
       </c>
       <c r="N10">
-        <v>214165.7515869408</v>
+        <v>214165.75158694081</v>
       </c>
       <c r="O10">
         <v>214204.96875</v>
       </c>
       <c r="P10">
-        <v>214230.7450358922</v>
+        <v>214230.74503589221</v>
       </c>
       <c r="Q10">
         <v>52669.921875</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -5858,10 +5888,10 @@
         <v>171589.859375</v>
       </c>
       <c r="M11">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N11">
-        <v>247692.2515082695</v>
+        <v>247692.25150826949</v>
       </c>
       <c r="O11">
         <v>245551.265625</v>
@@ -5873,7 +5903,7 @@
         <v>-65316.7734375</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -5911,7 +5941,7 @@
         <v>188361.4375</v>
       </c>
       <c r="M12">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N12">
         <v>242154.1024599568</v>
@@ -5920,13 +5950,13 @@
         <v>239562.640625</v>
       </c>
       <c r="P12">
-        <v>239538.3547880178</v>
+        <v>239538.35478801781</v>
       </c>
       <c r="Q12">
         <v>140434.8125</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -5964,22 +5994,22 @@
         <v>176418.9375</v>
       </c>
       <c r="M13">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N13">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O13">
         <v>214523.15625</v>
       </c>
       <c r="P13">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q13">
         <v>-198290.375</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -6017,22 +6047,22 @@
         <v>123302.2421875</v>
       </c>
       <c r="M14">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N14">
-        <v>263948.4768241873</v>
+        <v>263948.47682418732</v>
       </c>
       <c r="O14">
         <v>260799.0625</v>
       </c>
       <c r="P14">
-        <v>260739.4373479016</v>
+        <v>260739.43734790161</v>
       </c>
       <c r="Q14">
         <v>161212.234375</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -6070,22 +6100,22 @@
         <v>218544.5625</v>
       </c>
       <c r="M15">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N15">
-        <v>261465.8198638975</v>
+        <v>261465.81986389749</v>
       </c>
       <c r="O15">
         <v>252333.734375</v>
       </c>
       <c r="P15">
-        <v>249783.8680517107</v>
+        <v>249783.86805171071</v>
       </c>
       <c r="Q15">
         <v>-725125.375</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -6123,22 +6153,22 @@
         <v>187542.40625</v>
       </c>
       <c r="M16">
-        <v>218078.0571294716</v>
+        <v>218078.05712947159</v>
       </c>
       <c r="N16">
-        <v>214165.7515869408</v>
+        <v>214165.75158694081</v>
       </c>
       <c r="O16">
         <v>214204.96875</v>
       </c>
       <c r="P16">
-        <v>214230.7450358922</v>
+        <v>214230.74503589221</v>
       </c>
       <c r="Q16">
         <v>-631818.8125</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -6176,22 +6206,22 @@
         <v>217714.421875</v>
       </c>
       <c r="M17">
-        <v>221477.4084778201</v>
+        <v>221477.40847782011</v>
       </c>
       <c r="N17">
-        <v>231168.989551948</v>
+        <v>231168.98955194801</v>
       </c>
       <c r="O17">
         <v>228131.015625</v>
       </c>
       <c r="P17">
-        <v>228110.536704896</v>
+        <v>228110.53670489599</v>
       </c>
       <c r="Q17">
         <v>-33274.08984375</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -6229,22 +6259,22 @@
         <v>204451.875</v>
       </c>
       <c r="M18">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N18">
-        <v>234779.5311215729</v>
+        <v>234779.53112157289</v>
       </c>
       <c r="O18">
         <v>237476.171875</v>
       </c>
       <c r="P18">
-        <v>237469.1976780728</v>
+        <v>237469.19767807279</v>
       </c>
       <c r="Q18">
         <v>421163.8125</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -6282,7 +6312,7 @@
         <v>222173.953125</v>
       </c>
       <c r="M19">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N19">
         <v>250291.0705</v>
@@ -6297,7 +6327,7 @@
         <v>-389351.75</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -6335,22 +6365,22 @@
         <v>222901.5625</v>
       </c>
       <c r="M20">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N20">
-        <v>280896.349</v>
+        <v>280896.34899999999</v>
       </c>
       <c r="O20">
         <v>280480.9375</v>
       </c>
       <c r="P20">
-        <v>280466.0854404019</v>
+        <v>280466.08544040192</v>
       </c>
       <c r="Q20">
         <v>204605.125</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -6388,22 +6418,22 @@
         <v>176743.015625</v>
       </c>
       <c r="M21">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N21">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O21">
         <v>214523.15625</v>
       </c>
       <c r="P21">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q21">
         <v>494228.03125</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -6441,22 +6471,22 @@
         <v>209661.078125</v>
       </c>
       <c r="M22">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N22">
-        <v>263948.4768241873</v>
+        <v>263948.47682418732</v>
       </c>
       <c r="O22">
         <v>260799.0625</v>
       </c>
       <c r="P22">
-        <v>260739.4373479016</v>
+        <v>260739.43734790161</v>
       </c>
       <c r="Q22">
         <v>139876.421875</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -6494,22 +6524,22 @@
         <v>229970.671875</v>
       </c>
       <c r="M23">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N23">
-        <v>258178.8825</v>
+        <v>258178.88250000001</v>
       </c>
       <c r="O23">
         <v>263422.90625</v>
       </c>
       <c r="P23">
-        <v>263343.3470500244</v>
+        <v>263343.34705002437</v>
       </c>
       <c r="Q23">
         <v>-357290.28125</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -6547,22 +6577,22 @@
         <v>199990.703125</v>
       </c>
       <c r="M24">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N24">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O24">
         <v>214523.15625</v>
       </c>
       <c r="P24">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q24">
         <v>-2872.349365234375</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -6600,22 +6630,22 @@
         <v>218689.671875</v>
       </c>
       <c r="M25">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N25">
-        <v>234779.5311215729</v>
+        <v>234779.53112157289</v>
       </c>
       <c r="O25">
         <v>237476.171875</v>
       </c>
       <c r="P25">
-        <v>237469.1976780728</v>
+        <v>237469.19767807279</v>
       </c>
       <c r="Q25">
         <v>-339664.84375</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -6653,10 +6683,10 @@
         <v>237341.546875</v>
       </c>
       <c r="M26">
-        <v>221477.4084778201</v>
+        <v>221477.40847782011</v>
       </c>
       <c r="N26">
-        <v>220348.8742818095</v>
+        <v>220348.87428180949</v>
       </c>
       <c r="O26">
         <v>220269.015625</v>
@@ -6668,7 +6698,7 @@
         <v>272849.0625</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -6706,22 +6736,22 @@
         <v>232591.578125</v>
       </c>
       <c r="M27">
-        <v>232419.5567606252</v>
+        <v>232419.55676062519</v>
       </c>
       <c r="N27">
-        <v>229058.7313051948</v>
+        <v>229058.73130519479</v>
       </c>
       <c r="O27">
         <v>266750.25</v>
       </c>
       <c r="P27">
-        <v>214338.9814397684</v>
+        <v>214338.98143976839</v>
       </c>
       <c r="Q27">
         <v>1562039.125</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -6759,22 +6789,22 @@
         <v>209955.375</v>
       </c>
       <c r="M28">
-        <v>223471.9748003703</v>
+        <v>223471.97480037031</v>
       </c>
       <c r="N28">
-        <v>223259.5449853126</v>
+        <v>223259.54498531259</v>
       </c>
       <c r="O28">
         <v>224373.4375</v>
       </c>
       <c r="P28">
-        <v>224373.5672948709</v>
+        <v>224373.56729487091</v>
       </c>
       <c r="Q28">
         <v>1330063.25</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -6812,22 +6842,22 @@
         <v>263720.9375</v>
       </c>
       <c r="M29">
-        <v>221477.4084778201</v>
+        <v>221477.40847782011</v>
       </c>
       <c r="N29">
-        <v>231168.989551948</v>
+        <v>231168.98955194801</v>
       </c>
       <c r="O29">
         <v>228131.015625</v>
       </c>
       <c r="P29">
-        <v>228110.536704896</v>
+        <v>228110.53670489599</v>
       </c>
       <c r="Q29">
         <v>3047780.25</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -6865,22 +6895,22 @@
         <v>251538.125</v>
       </c>
       <c r="M30">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N30">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O30">
         <v>214523.15625</v>
       </c>
       <c r="P30">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q30">
         <v>3104006</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -6918,10 +6948,10 @@
         <v>306661.625</v>
       </c>
       <c r="M31">
-        <v>221477.4084778201</v>
+        <v>221477.40847782011</v>
       </c>
       <c r="N31">
-        <v>220348.8742818095</v>
+        <v>220348.87428180949</v>
       </c>
       <c r="O31">
         <v>220269.015625</v>
@@ -6933,7 +6963,7 @@
         <v>4818665.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -6971,7 +7001,7 @@
         <v>254273.34375</v>
       </c>
       <c r="M32">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N32">
         <v>238973.9033452381</v>
@@ -6980,13 +7010,13 @@
         <v>231716.046875</v>
       </c>
       <c r="P32">
-        <v>236422.0000128433</v>
+        <v>236422.00001284329</v>
       </c>
       <c r="Q32">
         <v>8267716</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -7024,22 +7054,22 @@
         <v>256140.59375</v>
       </c>
       <c r="M33">
-        <v>215382.3491335835</v>
+        <v>215382.34913358351</v>
       </c>
       <c r="N33">
-        <v>214188.6755549273</v>
+        <v>214188.67555492729</v>
       </c>
       <c r="O33">
         <v>214523.15625</v>
       </c>
       <c r="P33">
-        <v>214514.6294047169</v>
+        <v>214514.62940471689</v>
       </c>
       <c r="Q33">
         <v>10414168</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -7077,10 +7107,10 @@
         <v>334966.375</v>
       </c>
       <c r="M34">
-        <v>255582.4786912849</v>
+        <v>255582.47869128489</v>
       </c>
       <c r="N34">
-        <v>247692.2515082695</v>
+        <v>247692.25150826949</v>
       </c>
       <c r="O34">
         <v>245551.265625</v>
@@ -7093,6 +7123,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>